--- a/data/MSME Country Indicators - South Africa Summary.xlsx
+++ b/data/MSME Country Indicators - South Africa Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>South Africa</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: SME Associations (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -52,6 +55,12 @@
     <t>11.1</t>
   </si>
   <si>
+    <t>Employment (% of total)</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>Enterprises (% of total)</t>
   </si>
   <si>
@@ -67,6 +76,12 @@
     <t>Source: DTI, 2007</t>
   </si>
   <si>
+    <t>Value added to the economy (% of total)</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
     <t>Sector Distribution Details</t>
   </si>
   <si>
@@ -323,6 +338,12 @@
   </si>
   <si>
     <t>https://www.thedti.gov.za/sme_development/docs/3%20Annual%20Review%20Final%20Report%2011%20Aug%2008.pdf</t>
+  </si>
+  <si>
+    <t>DTI</t>
+  </si>
+  <si>
+    <t>Department of Trade and Industry (DTI), "ANNUAL REVIEW OF SMALL BUSINESS IN SOUTH AFRICA 2005-2007", South Africa.</t>
   </si>
 </sst>
 </file>
@@ -330,7 +351,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -341,6 +362,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -373,26 +400,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -400,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,412 +446,459 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="23">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="26">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E26" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B38" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E38" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B39" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E39" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B40" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C40" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D40" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E40" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="41">
+      <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="2" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+    <row r="43">
+      <c r="A43" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>75</v>
+      <c r="C43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1"/>
+    <hyperlink ref="A46" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/data/MSME Country Indicators - South Africa Summary.xlsx
+++ b/data/MSME Country Indicators - South Africa Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>South Africa</t>
   </si>
@@ -82,6 +82,51 @@
     <t>30.5</t>
   </si>
   <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Micro: Rm&lt;0.10 All sectors&lt;br/&gt;Very small: &lt;br/&gt;Rm&lt;0.5 Agriculture Construction Finance &lt;br/&gt;&lt;2 Mining, Manuf.,&lt;br/&gt;&lt;1.90 Elec., Catering &lt;br/&gt;&lt;0.6 Retail, Wholesale, TranAnnual sales, Others</t>
+  </si>
+  <si>
+    <t>Micro: Rm&lt;0.20 All sectors&lt;br/&gt;Very small: &lt;br/&gt;Rm&lt;0.5 Agriculture &lt;br/&gt;&lt;4 Mining, Retail &lt;br/&gt;&lt;52 Manuf., &lt;br/&gt;&lt;5.1 Elec., &lt;br/&gt;&lt;3 ConsTurnover, Transport Finance&lt;br/&gt; &lt;6 Wholesale, &lt;br/&gt;&lt;5.1 Catering,&lt;br/&gt;&lt;1 Others</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>&lt;3 Rm Agriculture, &lt;br/&gt;&lt;6 Mining, &lt;br/&gt;&lt;5 Manuf., Elec., Wholesale &lt;br/&gt;&lt;1 ConsTurnover and Catering &lt;br/&gt;&lt;3 Retail, TranAnnual sales, Finance, OtherAnnual sales</t>
+  </si>
+  <si>
+    <t>&lt;3 Rm Agriculture, &lt;br/&gt;&lt;10 Mining, &lt;br/&gt;&lt;13 Manuf. TranAnnual sales and Elec., &lt;br/&gt;&lt;6 ConsTurnover and catering &lt;br/&gt;&lt;19 Retail, &lt;br/&gt;&lt;32 Wholesale</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>&lt;5 Rm Agriculture Finance, &lt;br/&gt;&lt;23 Mining, &lt;br/&gt;&lt;19 Manuf. and Elec., &lt;br/&gt;&lt;5 Const &lt;br/&gt;&lt;6 Retail, Transport and Others &lt;br/&gt;&lt;10 Wholesale, &lt;br/&gt;&lt;3 Catering</t>
+  </si>
+  <si>
+    <t>&lt;5 Rm Agriculture,&lt;br/&gt;&lt;39 Mining, &lt;br/&gt;&lt;51 Manuf. and Elec., &lt;br/&gt;&lt;26 Const, Transport &lt;br/&gt;&lt;39 Retail, &lt;br/&gt;&lt;64 Wholesale, &lt;br/&gt;&lt;13 Catering</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;=5 Rm Agriculture Finance, &lt;br/&gt;&gt;=23 Mining,&lt;br/&gt; &gt;=19 Manuf. and Elec., &lt;br/&gt;&gt;=5 Const &gt;=6 Retail, Transport and Others &lt;br/&gt;&gt;=10 Wholesale, &lt;br/&gt;&gt;=3 Catering</t>
+  </si>
+  <si>
+    <t>&gt;=5 Rm Agriculture, &lt;br/&gt;&gt;=39 Mining, &lt;br/&gt;&gt;=51 Manuf. and Elec.,&lt;br/&gt;&gt;=26 Const, Transport &lt;br/&gt;&gt;=39 Retail, &lt;br/&gt;&gt;=64 Wholesale, &lt;br/&gt;&gt;=13 Catering</t>
+  </si>
+  <si>
     <t>Sector Distribution Details</t>
   </si>
   <si>
@@ -251,9 +296,6 @@
   </si>
   <si>
     <t>1,035</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Retail and Motor Trade and Repair Services</t>
@@ -430,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -541,364 +583,431 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22">
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
+      <c r="A23" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E31" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>76</v>
+      <c r="A36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>85</v>
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>100</v>
+      <c r="A41" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="C45" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D45" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E45" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="2" t="s">
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
+      <c r="B46" s="0" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
+      <c r="C46" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="D46" s="0" t="s">
         <v>108</v>
       </c>
+      <c r="E46" s="0" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>80</v>
+      <c r="A47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>109</v>
+      <c r="A50" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A46" r:id="rId1"/>
+    <hyperlink ref="A52" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/data/MSME Country Indicators - South Africa Summary.xlsx
+++ b/data/MSME Country Indicators - South Africa Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>South Africa</t>
   </si>
@@ -91,213 +91,225 @@
     <t>Turnover (local currency, unless noted otherwise)</t>
   </si>
   <si>
+    <t>Micro: &lt;5, &lt;br/&gt;Very small: &lt;br/&gt;&lt;10 Agriculture &lt;br/&gt;&lt;20 Mining, Manuf., Elec., ConsTurnover, Retail, Wholesale, Catering, Transport, Finan., Others</t>
+  </si>
+  <si>
+    <t>Micro: Rm&lt;0.10 All sectors&lt;br/&gt;Very small: &lt;br/&gt;Rm&lt;0.5 Agriculture Construction Finance &lt;br/&gt;&lt;2 Mining, Manuf.,&lt;br/&gt;&lt;1.90 Elec., Catering &lt;br/&gt;&lt;0.6 Retail, Wholesale, TranAnnual sales, Others</t>
+  </si>
+  <si>
+    <t>Micro: Rm&lt;0.20 All sectors&lt;br/&gt;Very small: &lt;br/&gt;Rm&lt;0.5 Agriculture &lt;br/&gt;&lt;4 Mining, Retail &lt;br/&gt;&lt;52 Manuf., &lt;br/&gt;&lt;5.1 Elec., &lt;br/&gt;&lt;3 ConsTurnover, Transport Finance&lt;br/&gt; &lt;6 Wholesale, &lt;br/&gt;&lt;5.1 Catering,&lt;br/&gt;&lt;1 Others</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>&lt;3 Rm Agriculture, &lt;br/&gt;&lt;6 Mining, &lt;br/&gt;&lt;5 Manuf., Elec., Wholesale &lt;br/&gt;&lt;1 ConsTurnover and Catering &lt;br/&gt;&lt;3 Retail, TranAnnual sales, Finance, OtherAnnual sales</t>
+  </si>
+  <si>
+    <t>&lt;3 Rm Agriculture, &lt;br/&gt;&lt;10 Mining, &lt;br/&gt;&lt;13 Manuf. TranAnnual sales and Elec., &lt;br/&gt;&lt;6 ConsTurnover and catering &lt;br/&gt;&lt;19 Retail, &lt;br/&gt;&lt;32 Wholesale</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>&lt;100 Agri. &lt;br/&gt;&lt;200 Others</t>
+  </si>
+  <si>
+    <t>&lt;5 Rm Agriculture Finance, &lt;br/&gt;&lt;23 Mining, &lt;br/&gt;&lt;19 Manuf. and Elec., &lt;br/&gt;&lt;5 Const &lt;br/&gt;&lt;6 Retail, Transport and Others &lt;br/&gt;&lt;10 Wholesale, &lt;br/&gt;&lt;3 Catering</t>
+  </si>
+  <si>
+    <t>&lt;5 Rm Agriculture,&lt;br/&gt;&lt;39 Mining, &lt;br/&gt;&lt;51 Manuf. and Elec., &lt;br/&gt;&lt;26 Const, Transport &lt;br/&gt;&lt;39 Retail, &lt;br/&gt;&lt;64 Wholesale, &lt;br/&gt;&lt;13 Catering</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;=100 Agri. &lt;br/&gt;&gt;=200 Others</t>
+  </si>
+  <si>
+    <t>&gt;=5 Rm Agriculture Finance, &lt;br/&gt;&gt;=23 Mining,&lt;br/&gt; &gt;=19 Manuf. and Elec., &lt;br/&gt;&gt;=5 Const &gt;=6 Retail, Transport and Others &lt;br/&gt;&gt;=10 Wholesale, &lt;br/&gt;&gt;=3 Catering</t>
+  </si>
+  <si>
+    <t>&gt;=5 Rm Agriculture, &lt;br/&gt;&gt;=39 Mining, &lt;br/&gt;&gt;=51 Manuf. and Elec.,&lt;br/&gt;&gt;=26 Const, Transport &lt;br/&gt;&gt;=39 Retail, &lt;br/&gt;&gt;=64 Wholesale, &lt;br/&gt;&gt;=13 Catering</t>
+  </si>
+  <si>
+    <t>Sector Distribution Details</t>
+  </si>
+  <si>
+    <t>%Micro</t>
+  </si>
+  <si>
+    <t>%SMEs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry </t>
+  </si>
+  <si>
+    <t>51,680</t>
+  </si>
+  <si>
+    <t>11,964</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>11.46</t>
+  </si>
+  <si>
+    <t>Mining and quarrying</t>
+  </si>
+  <si>
+    <t>1,578</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>49,023</t>
+  </si>
+  <si>
+    <t>11,131</t>
+  </si>
+  <si>
+    <t>8.85</t>
+  </si>
+  <si>
+    <t>10.66</t>
+  </si>
+  <si>
+    <t>Electricity, Gas, Water and Waste Services</t>
+  </si>
+  <si>
+    <t>1,079</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade </t>
+  </si>
+  <si>
+    <t>25,068</t>
+  </si>
+  <si>
+    <t>5,666</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>5.43</t>
+  </si>
+  <si>
+    <t>Wholesale Trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services </t>
+  </si>
+  <si>
+    <t>466,021</t>
+  </si>
+  <si>
+    <t>80,022</t>
+  </si>
+  <si>
+    <t>84.09</t>
+  </si>
+  <si>
+    <t>76.64</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>32,005</t>
+  </si>
+  <si>
+    <t>6,790</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>Transportation and storage</t>
+  </si>
+  <si>
+    <t>15,274</t>
+  </si>
+  <si>
+    <t>3,030</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>Community, Social and Personal Services</t>
+  </si>
+  <si>
+    <t>27,659</t>
+  </si>
+  <si>
+    <t>8,157</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>7.81</t>
+  </si>
+  <si>
+    <t>Financial service and insurance activities</t>
+  </si>
+  <si>
+    <t>210,985</t>
+  </si>
+  <si>
+    <t>26,448</t>
+  </si>
+  <si>
+    <t>38.07</t>
+  </si>
+  <si>
+    <t>25.33</t>
+  </si>
+  <si>
+    <t>Catering Accommodation and other Trade</t>
+  </si>
+  <si>
+    <t>17,711</t>
+  </si>
+  <si>
+    <t>1,035</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Micro: Rm&lt;0.10 All sectors&lt;br/&gt;Very small: &lt;br/&gt;Rm&lt;0.5 Agriculture Construction Finance &lt;br/&gt;&lt;2 Mining, Manuf.,&lt;br/&gt;&lt;1.90 Elec., Catering &lt;br/&gt;&lt;0.6 Retail, Wholesale, TranAnnual sales, Others</t>
-  </si>
-  <si>
-    <t>Micro: Rm&lt;0.20 All sectors&lt;br/&gt;Very small: &lt;br/&gt;Rm&lt;0.5 Agriculture &lt;br/&gt;&lt;4 Mining, Retail &lt;br/&gt;&lt;52 Manuf., &lt;br/&gt;&lt;5.1 Elec., &lt;br/&gt;&lt;3 ConsTurnover, Transport Finance&lt;br/&gt; &lt;6 Wholesale, &lt;br/&gt;&lt;5.1 Catering,&lt;br/&gt;&lt;1 Others</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>&lt;3 Rm Agriculture, &lt;br/&gt;&lt;6 Mining, &lt;br/&gt;&lt;5 Manuf., Elec., Wholesale &lt;br/&gt;&lt;1 ConsTurnover and Catering &lt;br/&gt;&lt;3 Retail, TranAnnual sales, Finance, OtherAnnual sales</t>
-  </si>
-  <si>
-    <t>&lt;3 Rm Agriculture, &lt;br/&gt;&lt;10 Mining, &lt;br/&gt;&lt;13 Manuf. TranAnnual sales and Elec., &lt;br/&gt;&lt;6 ConsTurnover and catering &lt;br/&gt;&lt;19 Retail, &lt;br/&gt;&lt;32 Wholesale</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>&lt;5 Rm Agriculture Finance, &lt;br/&gt;&lt;23 Mining, &lt;br/&gt;&lt;19 Manuf. and Elec., &lt;br/&gt;&lt;5 Const &lt;br/&gt;&lt;6 Retail, Transport and Others &lt;br/&gt;&lt;10 Wholesale, &lt;br/&gt;&lt;3 Catering</t>
-  </si>
-  <si>
-    <t>&lt;5 Rm Agriculture,&lt;br/&gt;&lt;39 Mining, &lt;br/&gt;&lt;51 Manuf. and Elec., &lt;br/&gt;&lt;26 Const, Transport &lt;br/&gt;&lt;39 Retail, &lt;br/&gt;&lt;64 Wholesale, &lt;br/&gt;&lt;13 Catering</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>&gt;=5 Rm Agriculture Finance, &lt;br/&gt;&gt;=23 Mining,&lt;br/&gt; &gt;=19 Manuf. and Elec., &lt;br/&gt;&gt;=5 Const &gt;=6 Retail, Transport and Others &lt;br/&gt;&gt;=10 Wholesale, &lt;br/&gt;&gt;=3 Catering</t>
-  </si>
-  <si>
-    <t>&gt;=5 Rm Agriculture, &lt;br/&gt;&gt;=39 Mining, &lt;br/&gt;&gt;=51 Manuf. and Elec.,&lt;br/&gt;&gt;=26 Const, Transport &lt;br/&gt;&gt;=39 Retail, &lt;br/&gt;&gt;=64 Wholesale, &lt;br/&gt;&gt;=13 Catering</t>
-  </si>
-  <si>
-    <t>Sector Distribution Details</t>
-  </si>
-  <si>
-    <t>%Micro</t>
-  </si>
-  <si>
-    <t>%SMEs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry </t>
-  </si>
-  <si>
-    <t>51,680</t>
-  </si>
-  <si>
-    <t>11,964</t>
-  </si>
-  <si>
-    <t>9.33</t>
-  </si>
-  <si>
-    <t>11.46</t>
-  </si>
-  <si>
-    <t>Mining and quarrying</t>
-  </si>
-  <si>
-    <t>1,578</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>49,023</t>
-  </si>
-  <si>
-    <t>11,131</t>
-  </si>
-  <si>
-    <t>8.85</t>
-  </si>
-  <si>
-    <t>10.66</t>
-  </si>
-  <si>
-    <t>Electricity, Gas, Water and Waste Services</t>
-  </si>
-  <si>
-    <t>1,079</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade </t>
-  </si>
-  <si>
-    <t>25,068</t>
-  </si>
-  <si>
-    <t>5,666</t>
-  </si>
-  <si>
-    <t>4.52</t>
-  </si>
-  <si>
-    <t>5.43</t>
-  </si>
-  <si>
-    <t>Wholesale Trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services </t>
-  </si>
-  <si>
-    <t>466,021</t>
-  </si>
-  <si>
-    <t>80,022</t>
-  </si>
-  <si>
-    <t>84.09</t>
-  </si>
-  <si>
-    <t>76.64</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>32,005</t>
-  </si>
-  <si>
-    <t>6,790</t>
-  </si>
-  <si>
-    <t>5.78</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>Transportation and storage</t>
-  </si>
-  <si>
-    <t>15,274</t>
-  </si>
-  <si>
-    <t>3,030</t>
-  </si>
-  <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>Community, Social and Personal Services</t>
-  </si>
-  <si>
-    <t>27,659</t>
-  </si>
-  <si>
-    <t>8,157</t>
-  </si>
-  <si>
-    <t>4.99</t>
-  </si>
-  <si>
-    <t>7.81</t>
-  </si>
-  <si>
-    <t>Financial service and insurance activities</t>
-  </si>
-  <si>
-    <t>210,985</t>
-  </si>
-  <si>
-    <t>26,448</t>
-  </si>
-  <si>
-    <t>38.07</t>
-  </si>
-  <si>
-    <t>25.33</t>
-  </si>
-  <si>
-    <t>Catering Accommodation and other Trade</t>
-  </si>
-  <si>
-    <t>17,711</t>
-  </si>
-  <si>
-    <t>1,035</t>
-  </si>
-  <si>
     <t>Retail and Motor Trade and Repair Services</t>
   </si>
   <si>
@@ -382,10 +394,25 @@
     <t>https://www.thedti.gov.za/sme_development/docs/3%20Annual%20Review%20Final%20Report%2011%20Aug%2008.pdf</t>
   </si>
   <si>
+    <t>Additional Info:</t>
+  </si>
+  <si>
+    <t>http://smegrowthindex.co.za/wp-content/uploads/2014/02/SBP-Brochure-2014-Online-Low.pdf</t>
+  </si>
+  <si>
+    <t>http://www.entrepreneurstoolkit.org/index.php?title=Small,_micro_and_medium_enterprises_in_South_Africa</t>
+  </si>
+  <si>
+    <t>http://www.thedti.gov.za/sme_development/acts_policies_strat.jsp</t>
+  </si>
+  <si>
+    <t>South African SME Growth Index:</t>
+  </si>
+  <si>
+    <t>http://smefinanceforum.org/post/south-african-sme-growth-index</t>
+  </si>
+  <si>
     <t>DTI</t>
-  </si>
-  <si>
-    <t>Department of Trade and Industry (DTI), "ANNUAL REVIEW OF SMALL BUSINESS IN SOUTH AFRICA 2005-2007", South Africa.</t>
   </si>
 </sst>
 </file>
@@ -472,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,46 +640,46 @@
         <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -663,352 +690,414 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="D37" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="C48" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>122</v>
+      <c r="A52" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>26</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>123</v>
+      <c r="A56" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>124</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A52" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/MSME Country Indicators - South Africa Summary.xlsx
+++ b/data/MSME Country Indicators - South Africa Summary.xlsx
@@ -91,13 +91,30 @@
     <t>Turnover (local currency, unless noted otherwise)</t>
   </si>
   <si>
-    <t>Micro: &lt;5, &lt;br/&gt;Very small: &lt;br/&gt;&lt;10 Agriculture &lt;br/&gt;&lt;20 Mining, Manuf., Elec., ConsTurnover, Retail, Wholesale, Catering, Transport, Finan., Others</t>
-  </si>
-  <si>
-    <t>Micro: Rm&lt;0.10 All sectors&lt;br/&gt;Very small: &lt;br/&gt;Rm&lt;0.5 Agriculture Construction Finance &lt;br/&gt;&lt;2 Mining, Manuf.,&lt;br/&gt;&lt;1.90 Elec., Catering &lt;br/&gt;&lt;0.6 Retail, Wholesale, TranAnnual sales, Others</t>
-  </si>
-  <si>
-    <t>Micro: Rm&lt;0.20 All sectors&lt;br/&gt;Very small: &lt;br/&gt;Rm&lt;0.5 Agriculture &lt;br/&gt;&lt;4 Mining, Retail &lt;br/&gt;&lt;52 Manuf., &lt;br/&gt;&lt;5.1 Elec., &lt;br/&gt;&lt;3 ConsTurnover, Transport Finance&lt;br/&gt; &lt;6 Wholesale, &lt;br/&gt;&lt;5.1 Catering,&lt;br/&gt;&lt;1 Others</t>
+    <t>Micro: &lt;5, 
+Very small: 
+&lt;10 Agriculture 
+&lt;20 Mining, Manuf., Elec., ConsTurnover, Retail, Wholesale, Catering, Transport, Finan., Others</t>
+  </si>
+  <si>
+    <t>Micro: Rm&lt;0.10 All sectors
+Very small: 
+Rm&lt;0.5 Agriculture Construction Finance 
+&lt;2 Mining, Manuf.,
+&lt;1.90 Elec., Catering 
+&lt;0.6 Retail, Wholesale, TranAnnual sales, Others</t>
+  </si>
+  <si>
+    <t>Micro: Rm&lt;0.20 All sectors
+Very small: 
+Rm&lt;0.5 Agriculture 
+&lt;4 Mining, Retail 
+&lt;52 Manuf., 
+&lt;5.1 Elec., 
+&lt;3 ConsTurnover, Transport Finance
+ &lt;6 Wholesale, 
+&lt;5.1 Catering,
+&lt;1 Others</t>
   </si>
   <si>
     <t>Small</t>
@@ -106,34 +123,68 @@
     <t>&lt;50</t>
   </si>
   <si>
-    <t>&lt;3 Rm Agriculture, &lt;br/&gt;&lt;6 Mining, &lt;br/&gt;&lt;5 Manuf., Elec., Wholesale &lt;br/&gt;&lt;1 ConsTurnover and Catering &lt;br/&gt;&lt;3 Retail, TranAnnual sales, Finance, OtherAnnual sales</t>
-  </si>
-  <si>
-    <t>&lt;3 Rm Agriculture, &lt;br/&gt;&lt;10 Mining, &lt;br/&gt;&lt;13 Manuf. TranAnnual sales and Elec., &lt;br/&gt;&lt;6 ConsTurnover and catering &lt;br/&gt;&lt;19 Retail, &lt;br/&gt;&lt;32 Wholesale</t>
+    <t>&lt;3 Rm Agriculture, 
+&lt;6 Mining, 
+&lt;5 Manuf., Elec., Wholesale 
+&lt;1 ConsTurnover and Catering 
+&lt;3 Retail, TranAnnual sales, Finance, OtherAnnual sales</t>
+  </si>
+  <si>
+    <t>&lt;3 Rm Agriculture, 
+&lt;10 Mining, 
+&lt;13 Manuf. TranAnnual sales and Elec., 
+&lt;6 ConsTurnover and catering 
+&lt;19 Retail, 
+&lt;32 Wholesale</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>&lt;100 Agri. &lt;br/&gt;&lt;200 Others</t>
-  </si>
-  <si>
-    <t>&lt;5 Rm Agriculture Finance, &lt;br/&gt;&lt;23 Mining, &lt;br/&gt;&lt;19 Manuf. and Elec., &lt;br/&gt;&lt;5 Const &lt;br/&gt;&lt;6 Retail, Transport and Others &lt;br/&gt;&lt;10 Wholesale, &lt;br/&gt;&lt;3 Catering</t>
-  </si>
-  <si>
-    <t>&lt;5 Rm Agriculture,&lt;br/&gt;&lt;39 Mining, &lt;br/&gt;&lt;51 Manuf. and Elec., &lt;br/&gt;&lt;26 Const, Transport &lt;br/&gt;&lt;39 Retail, &lt;br/&gt;&lt;64 Wholesale, &lt;br/&gt;&lt;13 Catering</t>
+    <t>&lt;100 Agri. 
+&lt;200 Others</t>
+  </si>
+  <si>
+    <t>&lt;5 Rm Agriculture Finance, 
+&lt;23 Mining, 
+&lt;19 Manuf. and Elec., 
+&lt;5 Const 
+&lt;6 Retail, Transport and Others 
+&lt;10 Wholesale, 
+&lt;3 Catering</t>
+  </si>
+  <si>
+    <t>&lt;5 Rm Agriculture,
+&lt;39 Mining, 
+&lt;51 Manuf. and Elec., 
+&lt;26 Const, Transport 
+&lt;39 Retail, 
+&lt;64 Wholesale, 
+&lt;13 Catering</t>
   </si>
   <si>
     <t>Large</t>
   </si>
   <si>
-    <t>&gt;=100 Agri. &lt;br/&gt;&gt;=200 Others</t>
-  </si>
-  <si>
-    <t>&gt;=5 Rm Agriculture Finance, &lt;br/&gt;&gt;=23 Mining,&lt;br/&gt; &gt;=19 Manuf. and Elec., &lt;br/&gt;&gt;=5 Const &gt;=6 Retail, Transport and Others &lt;br/&gt;&gt;=10 Wholesale, &lt;br/&gt;&gt;=3 Catering</t>
-  </si>
-  <si>
-    <t>&gt;=5 Rm Agriculture, &lt;br/&gt;&gt;=39 Mining, &lt;br/&gt;&gt;=51 Manuf. and Elec.,&lt;br/&gt;&gt;=26 Const, Transport &lt;br/&gt;&gt;=39 Retail, &lt;br/&gt;&gt;=64 Wholesale, &lt;br/&gt;&gt;=13 Catering</t>
+    <t>&gt;=100 Agri. 
+&gt;=200 Others</t>
+  </si>
+  <si>
+    <t>&gt;=5 Rm Agriculture Finance, 
+&gt;=23 Mining,
+ &gt;=19 Manuf. and Elec., 
+&gt;=5 Const &gt;=6 Retail, Transport and Others 
+&gt;=10 Wholesale, 
+&gt;=3 Catering</t>
+  </si>
+  <si>
+    <t>&gt;=5 Rm Agriculture, 
+&gt;=39 Mining, 
+&gt;=51 Manuf. and Elec.,
+&gt;=26 Const, Transport 
+&gt;=39 Retail, 
+&gt;=64 Wholesale, 
+&gt;=13 Catering</t>
   </si>
   <si>
     <t>Sector Distribution Details</t>

--- a/data/MSME Country Indicators - South Africa Summary.xlsx
+++ b/data/MSME Country Indicators - South Africa Summary.xlsx
@@ -46,13 +46,13 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>11.1</t>
+    <t>9.37</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>11.11</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
@@ -64,13 +64,13 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>81.7</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>96.9</t>
+    <t>81.72</t>
+  </si>
+  <si>
+    <t>15.17</t>
+  </si>
+  <si>
+    <t>96.88</t>
   </si>
   <si>
     <t>Source: DTI, 2007</t>
